--- a/64-units/64-output_df_validation.xlsx
+++ b/64-units/64-output_df_validation.xlsx
@@ -464,13 +464,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.848205089569092</v>
+        <v>0.004015082493424416</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.415862053109095</v>
+        <v>1.612088742900322e-05</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>0.011843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03828786686062813</v>
+        <v>0.01903259940445423</v>
       </c>
       <c r="D3" t="n">
         <v>0.007920270198864755</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000922190927011542</v>
+        <v>0.0001234838603733968</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         <v>0.023687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00750802643597126</v>
+        <v>0.06870182603597641</v>
       </c>
       <c r="D4" t="n">
         <v>0.0541099401604743</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002171738362786025</v>
+        <v>0.0002129231334036779</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         <v>0.03553</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5355193614959717</v>
+        <v>0.1402359008789062</v>
       </c>
       <c r="D5" t="n">
         <v>0.1273505335547468</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4393964977645505</v>
+        <v>0.0001660326910785163</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>0.047374</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.002710103988647</v>
+        <v>0.2037204205989838</v>
       </c>
       <c r="D6" t="n">
         <v>0.1919797352175346</v>
       </c>
       <c r="E6" t="n">
-        <v>1.427283811902493</v>
+        <v>0.0001378436932261745</v>
       </c>
     </row>
     <row r="7">
@@ -549,13 +549,13 @@
         <v>0.059217</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.081982254981995</v>
+        <v>0.2281451523303986</v>
       </c>
       <c r="D7" t="n">
         <v>0.2179247732510162</v>
       </c>
       <c r="E7" t="n">
-        <v>1.689758282049577</v>
+        <v>0.0001044561485262767</v>
       </c>
     </row>
     <row r="8">
@@ -566,13 +566,13 @@
         <v>0.07126</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.078658103942871</v>
+        <v>0.2325558513402939</v>
       </c>
       <c r="D8" t="n">
         <v>0.219878394894207</v>
       </c>
       <c r="E8" t="n">
-        <v>1.686197038812057</v>
+        <v>0.0001607179019424301</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +583,13 @@
         <v>0.083303</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8277936577796936</v>
+        <v>0.2161427736282349</v>
       </c>
       <c r="D9" t="n">
         <v>0.2034614812527241</v>
       </c>
       <c r="E9" t="n">
-        <v>1.063487161780771</v>
+        <v>0.0001608151763131877</v>
       </c>
     </row>
     <row r="10">
@@ -600,13 +600,13 @@
         <v>0.095346</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5042264461517334</v>
+        <v>0.1910541355609894</v>
       </c>
       <c r="D10" t="n">
         <v>0.1805149753132994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4688708142699537</v>
+        <v>0.0001110738987264885</v>
       </c>
     </row>
     <row r="11">
@@ -617,13 +617,13 @@
         <v>0.10739</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2688546180725098</v>
+        <v>0.1634642481803894</v>
       </c>
       <c r="D11" t="n">
         <v>0.1570977750588763</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1814354412143549</v>
+        <v>4.053198000694897e-05</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         <v>0.11943</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1366888433694839</v>
+        <v>0.1429699063301086</v>
       </c>
       <c r="D12" t="n">
         <v>0.1360699860823273</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07439737904392225</v>
+        <v>4.760889942574311e-05</v>
       </c>
     </row>
     <row r="13">
@@ -651,13 +651,13 @@
         <v>0.13167</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.08707119524478912</v>
+        <v>0.1252136528491974</v>
       </c>
       <c r="D13" t="n">
         <v>0.117543720378003</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04186726369532233</v>
+        <v>5.882786411268214e-05</v>
       </c>
     </row>
     <row r="14">
@@ -668,13 +668,13 @@
         <v>0.1439</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03288723155856133</v>
+        <v>0.1090580150485039</v>
       </c>
       <c r="D14" t="n">
         <v>0.101980439899076</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01818928880440521</v>
+        <v>5.009206999579901e-05</v>
       </c>
     </row>
     <row r="15">
@@ -685,13 +685,13 @@
         <v>0.15613</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1844405084848404</v>
+        <v>0.09591373056173325</v>
       </c>
       <c r="D15" t="n">
         <v>0.08919154132310828</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07487449868209968</v>
+        <v>4.518782815988536e-05</v>
       </c>
     </row>
     <row r="16">
@@ -702,13 +702,13 @@
         <v>0.16836</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3153467178344727</v>
+        <v>0.0846860334277153</v>
       </c>
       <c r="D16" t="n">
         <v>0.07866825510110681</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1552477988974254</v>
+        <v>3.62136559881989e-05</v>
       </c>
     </row>
     <row r="17">
@@ -719,13 +719,13 @@
         <v>0.1806</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2334643751382828</v>
+        <v>0.07650833576917648</v>
       </c>
       <c r="D17" t="n">
         <v>0.0697151321689032</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09191781365102802</v>
+        <v>4.614761515476595e-05</v>
       </c>
     </row>
     <row r="18">
@@ -736,13 +736,13 @@
         <v>0.19301</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1283009797334671</v>
+        <v>0.06957104057073593</v>
       </c>
       <c r="D18" t="n">
         <v>0.06229572164538796</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03632710257650045</v>
+        <v>5.293026546552641e-05</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>0.20542</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.03363634273409843</v>
+        <v>0.06347250193357468</v>
       </c>
       <c r="D19" t="n">
         <v>0.05608229531723823</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008049434013786758</v>
+        <v>5.461515383214294e-05</v>
       </c>
     </row>
     <row r="20">
@@ -770,13 +770,13 @@
         <v>0.21783</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04117489978671074</v>
+        <v>0.05887378007173538</v>
       </c>
       <c r="D20" t="n">
         <v>0.0509331388322084</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0084838907782243</v>
+        <v>6.305378329487657e-05</v>
       </c>
     </row>
     <row r="21">
@@ -787,13 +787,13 @@
         <v>0.23025</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04467476531863213</v>
+        <v>0.05361279100179672</v>
       </c>
       <c r="D21" t="n">
         <v>0.04659979348688512</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008331045085141825</v>
+        <v>4.918213414415627e-05</v>
       </c>
     </row>
     <row r="22">
@@ -804,13 +804,13 @@
         <v>0.24266</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01303858868777752</v>
+        <v>0.04575370997190475</v>
       </c>
       <c r="D22" t="n">
         <v>0.04284243071529115</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003122688329526137</v>
+        <v>8.475546909988682e-06</v>
       </c>
     </row>
     <row r="23">
@@ -821,13 +821,13 @@
         <v>0.25524</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01192022673785686</v>
+        <v>0.0422520712018013</v>
       </c>
       <c r="D23" t="n">
         <v>0.03955045321650252</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002649230894964093</v>
+        <v>7.298739738489858e-06</v>
       </c>
     </row>
     <row r="24">
@@ -838,13 +838,13 @@
         <v>0.26782</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0238357912749052</v>
+        <v>0.03980939835309982</v>
       </c>
       <c r="D24" t="n">
         <v>0.03670255228944378</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003664891041515154</v>
+        <v>9.652492463255044e-06</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +855,13 @@
         <v>0.2804</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.05282897874712944</v>
+        <v>0.03762661665678024</v>
       </c>
       <c r="D25" t="n">
         <v>0.03423437632453608</v>
       </c>
       <c r="E25" t="n">
-        <v>0.007580027796334906</v>
+        <v>1.150729447170397e-05</v>
       </c>
     </row>
     <row r="26">
@@ -872,13 +872,13 @@
         <v>0.29298</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.02344251982867718</v>
+        <v>0.0356278195977211</v>
       </c>
       <c r="D26" t="n">
         <v>0.03206770187517696</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003081384713611039</v>
+        <v>1.267443819837285e-05</v>
       </c>
     </row>
     <row r="27">
@@ -889,13 +889,13 @@
         <v>0.30556</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02935354597866535</v>
+        <v>0.03385546803474426</v>
       </c>
       <c r="D27" t="n">
         <v>0.03013092342024505</v>
       </c>
       <c r="E27" t="n">
-        <v>6.043156866769985e-07</v>
+        <v>1.387223258539508e-05</v>
       </c>
     </row>
     <row r="28">
@@ -906,13 +906,13 @@
         <v>0.3183</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004131542518734932</v>
+        <v>0.03226301819086075</v>
       </c>
       <c r="D28" t="n">
         <v>0.02837866976566381</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0005879231797287607</v>
+        <v>1.508816268832994e-05</v>
       </c>
     </row>
     <row r="29">
@@ -923,13 +923,13 @@
         <v>0.33104</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01972545497119427</v>
+        <v>0.03045488335192204</v>
       </c>
       <c r="D29" t="n">
         <v>0.02681102379085171</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002165643855570356</v>
+        <v>1.327771250080362e-05</v>
       </c>
     </row>
     <row r="30">
@@ -940,13 +940,13 @@
         <v>0.34377</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006919072940945625</v>
+        <v>0.02826075442135334</v>
       </c>
       <c r="D30" t="n">
         <v>0.02540171375281381</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003416080113805354</v>
+        <v>8.17411354436296e-06</v>
       </c>
     </row>
     <row r="31">
@@ -957,13 +957,13 @@
         <v>0.35651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01981310732662678</v>
+        <v>0.02691725455224514</v>
       </c>
       <c r="D31" t="n">
         <v>0.0241221405575778</v>
       </c>
       <c r="E31" t="n">
-        <v>1.856776738544021e-05</v>
+        <v>7.812662243185214e-06</v>
       </c>
     </row>
     <row r="32">
@@ -974,13 +974,13 @@
         <v>0.36925</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.04518486186861992</v>
+        <v>0.02583491243422031</v>
       </c>
       <c r="D32" t="n">
         <v>0.02294778591388828</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004642057693855319</v>
+        <v>8.335499544404563e-06</v>
       </c>
     </row>
     <row r="33">
@@ -991,13 +991,13 @@
         <v>0.38213</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.06556333601474762</v>
+        <v>0.02471114508807659</v>
       </c>
       <c r="D33" t="n">
         <v>0.02184881019161491</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0076408833044025</v>
+        <v>8.192961059502299e-06</v>
       </c>
     </row>
     <row r="34">
@@ -1008,13 +1008,13 @@
         <v>0.39501</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.08337141573429108</v>
+        <v>0.02264042012393475</v>
       </c>
       <c r="D34" t="n">
         <v>0.02083131086702007</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0108582082311476</v>
+        <v>3.272876303454374e-06</v>
       </c>
     </row>
     <row r="35">
@@ -1025,13 +1025,13 @@
         <v>0.40789</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1147965937852859</v>
+        <v>0.02158142812550068</v>
       </c>
       <c r="D35" t="n">
         <v>0.01988607688731721</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01813942177950488</v>
+        <v>2.874215820810227e-06</v>
       </c>
     </row>
     <row r="36">
@@ -1042,13 +1042,13 @@
         <v>0.42077</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1197424679994583</v>
+        <v>0.02283153124153614</v>
       </c>
       <c r="D36" t="n">
         <v>0.01900127828316104</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01924982713253585</v>
+        <v>1.467083772514121e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         <v>0.43365</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1061853319406509</v>
+        <v>0.02220659889280796</v>
       </c>
       <c r="D37" t="n">
         <v>0.01816597599347708</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01546324778492833</v>
+        <v>1.63266334145971e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1076,13 +1076,13 @@
         <v>0.4466600000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.05434395000338554</v>
+        <v>0.01792307756841183</v>
       </c>
       <c r="D38" t="n">
         <v>0.01735611453034558</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005140899254141207</v>
+        <v>3.214470865333101e-07</v>
       </c>
     </row>
     <row r="39">
@@ -1093,13 +1093,13 @@
         <v>0.45967</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03198425844311714</v>
+        <v>0.01814130507409573</v>
       </c>
       <c r="D39" t="n">
         <v>0.0165746835165611</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0002374549994171447</v>
+        <v>2.45430310453222e-06</v>
       </c>
     </row>
     <row r="40">
@@ -1110,13 +1110,13 @@
         <v>0.47268</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1285178512334824</v>
+        <v>0.01771278493106365</v>
       </c>
       <c r="D40" t="n">
         <v>0.01582032234155875</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01270073301834596</v>
+        <v>3.581414652675595e-06</v>
       </c>
     </row>
     <row r="41">
@@ -1127,13 +1127,13 @@
         <v>0.48569</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2336289435625076</v>
+        <v>0.01623967848718166</v>
       </c>
       <c r="D41" t="n">
         <v>0.01509079743352646</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04775892131349193</v>
+        <v>1.319927675447889e-06</v>
       </c>
     </row>
     <row r="42">
@@ -1144,13 +1144,13 @@
         <v>0.4987</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2794742286205292</v>
+        <v>0.0152976531535387</v>
       </c>
       <c r="D42" t="n">
         <v>0.01438353870897308</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07027307387778479</v>
+        <v>8.356052177635201e-07</v>
       </c>
     </row>
     <row r="43">
@@ -1161,13 +1161,13 @@
         <v>0.51183</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1667132824659348</v>
+        <v>0.01473814807832241</v>
       </c>
       <c r="D43" t="n">
         <v>0.01368783874728593</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02341678642528936</v>
+        <v>1.103149690862299e-06</v>
       </c>
     </row>
     <row r="44">
@@ -1178,13 +1178,13 @@
         <v>0.52496</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.001781118800863624</v>
+        <v>0.01419974863529205</v>
       </c>
       <c r="D44" t="n">
         <v>0.01300008975424694</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0002184841263496737</v>
+        <v>1.439181430870412e-06</v>
       </c>
     </row>
     <row r="45">
@@ -1195,13 +1195,13 @@
         <v>0.53809</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1316505372524261</v>
+        <v>0.01351167447865009</v>
       </c>
       <c r="D45" t="n">
         <v>0.01231959562343109</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02072739916029199</v>
+        <v>1.421051997060247e-06</v>
       </c>
     </row>
     <row r="46">
@@ -1212,13 +1212,13 @@
         <v>0.5512100000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1811334043741226</v>
+        <v>0.01276908628642559</v>
       </c>
       <c r="D46" t="n">
         <v>0.01164579123485829</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03716381825964572</v>
+        <v>1.261791772875585e-06</v>
       </c>
     </row>
     <row r="47">
@@ -1229,13 +1229,13 @@
         <v>0.56434</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.09749998152256012</v>
+        <v>0.01200498454272747</v>
       </c>
       <c r="D47" t="n">
         <v>0.01098044079001627</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01176800202511492</v>
+        <v>1.049689901219548e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1246,13 +1246,13 @@
         <v>0.57757</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03868656232953072</v>
+        <v>0.01123391650617123</v>
       </c>
       <c r="D48" t="n">
         <v>0.01032462707730982</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0008043993712511703</v>
+        <v>8.268072654391038e-07</v>
       </c>
     </row>
     <row r="49">
@@ -1263,13 +1263,13 @@
         <v>0.5908</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1273664981126785</v>
+        <v>0.01046157814562321</v>
       </c>
       <c r="D49" t="n">
         <v>0.009690952501335308</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01384753403492732</v>
+        <v>5.938638836341403e-07</v>
       </c>
     </row>
     <row r="50">
@@ -1280,13 +1280,13 @@
         <v>0.6040300000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1855636686086655</v>
+        <v>0.009732762351632118</v>
       </c>
       <c r="D50" t="n">
         <v>0.00908395359296154</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03114508981202407</v>
+        <v>4.209528053276569e-07</v>
       </c>
     </row>
     <row r="51">
@@ -1297,13 +1297,13 @@
         <v>0.61726</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1064653247594833</v>
+        <v>0.008995084092020988</v>
       </c>
       <c r="D51" t="n">
         <v>0.00850568542223273</v>
       </c>
       <c r="E51" t="n">
-        <v>0.009596090939084216</v>
+        <v>2.395110579905165e-07</v>
       </c>
     </row>
     <row r="52">
@@ -1314,13 +1314,13 @@
         <v>0.63049</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07514850795269012</v>
+        <v>0.008287752047181129</v>
       </c>
       <c r="D52" t="n">
         <v>0.007957887309911326</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004514579502361812</v>
+        <v>1.088107448940764e-07</v>
       </c>
     </row>
     <row r="53">
@@ -1331,13 +1331,13 @@
         <v>0.6438</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03474446013569832</v>
+        <v>0.007593164220452309</v>
       </c>
       <c r="D53" t="n">
         <v>0.007427425902215232</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0007462203593132869</v>
+        <v>2.746919013205454e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1348,13 +1348,13 @@
         <v>0.6571199999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07677815854549408</v>
+        <v>0.007095562294125557</v>
       </c>
       <c r="D54" t="n">
         <v>0.006917705736645741</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004880482866657326</v>
+        <v>3.163295503857121e-08</v>
       </c>
     </row>
     <row r="55">
@@ -1365,13 +1365,13 @@
         <v>0.6704399999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1758308857679367</v>
+        <v>0.006648177281022072</v>
       </c>
       <c r="D55" t="n">
         <v>0.006425734893484416</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02869810514279594</v>
+        <v>4.948061577345285e-08</v>
       </c>
     </row>
     <row r="56">
@@ -1382,13 +1382,13 @@
         <v>0.68375</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2674408257007599</v>
+        <v>0.006159054115414619</v>
       </c>
       <c r="D56" t="n">
         <v>0.005949240767824191</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0683778489907387</v>
+        <v>4.40216408271019e-08</v>
       </c>
     </row>
     <row r="57">
@@ -1399,13 +1399,13 @@
         <v>0.69707</v>
       </c>
       <c r="C57" t="n">
-        <v>0.339726984500885</v>
+        <v>0.005651028826832771</v>
       </c>
       <c r="D57" t="n">
         <v>0.00548765828493849</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1117159271892899</v>
+        <v>2.66899339588312e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1416,13 +1416,13 @@
         <v>0.7104600000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4836974143981934</v>
+        <v>0.005054274573922157</v>
       </c>
       <c r="D58" t="n">
         <v>0.005039635759694479</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2291132690511422</v>
+        <v>2.14294881992477e-10</v>
       </c>
     </row>
     <row r="59">
@@ -1433,13 +1433,13 @@
         <v>0.72385</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6097533702850342</v>
+        <v>0.004452580586075783</v>
       </c>
       <c r="D59" t="n">
         <v>0.004609849108381418</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3661986812220779</v>
+        <v>2.473338810819797e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1450,13 +1450,13 @@
         <v>0.7372300000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7391992211341858</v>
+        <v>0.003987783566117287</v>
       </c>
       <c r="D60" t="n">
         <v>0.004199077826212207</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5402252106627418</v>
+        <v>4.464526434905983e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1467,13 +1467,13 @@
         <v>0.75062</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9804400205612183</v>
+        <v>0.003493020310997963</v>
       </c>
       <c r="D61" t="n">
         <v>0.003807020023255061</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9538120177397852</v>
+        <v>9.859581929754037e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1484,13 +1484,13 @@
         <v>0.7640100000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>1.186147928237915</v>
+        <v>0.003010103479027748</v>
       </c>
       <c r="D62" t="n">
         <v>0.003433977506835449</v>
       </c>
       <c r="E62" t="n">
-        <v>1.398812289253919</v>
+        <v>1.796691914499236e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1501,13 +1501,13 @@
         <v>0.77746</v>
       </c>
       <c r="C63" t="n">
-        <v>1.350669145584106</v>
+        <v>0.002524638548493385</v>
       </c>
       <c r="D63" t="n">
         <v>0.003075117239802261</v>
       </c>
       <c r="E63" t="n">
-        <v>1.816009665229229</v>
+        <v>3.030267895851325e-07</v>
       </c>
     </row>
   </sheetData>
